--- a/data/trans_bre/P19C01-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C01-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>30,41%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,0%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-1,03; 17,28</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 15,42</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 4,52</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-3,48; 77,93</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,24; 79,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 4,96</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,01%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,49; 6,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,79; 6,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 14,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,48; 7,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,92; 23,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,63; 24,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 60,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,05; 22,11</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,51%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,86; 9,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,65; 10,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,67; 9,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,67; 8,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,2; 47,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,57; 36,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,86; 29,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,99; 22,64</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,93; 6,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 8,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,67; 3,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,09; 10,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,0; 19,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,53; 39,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,19; 11,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,88; 39,95</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,29%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,09; 13,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,61; 17,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,81; 15,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 5,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,06; 41,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,3; 51,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,03; 25,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,66; 6,6</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,38</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,12%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 16,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 17,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,73; 14,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,84; 16,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,34; 81,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 67,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,79; 42,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,89; 43,13</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,44%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,8%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,99%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 9,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,83; 14,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,78; 6,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,38; 0,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,45; 48,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,49; 53,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,25; 14,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,41; 0,14</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,95%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,5%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,84; 4,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 9,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,17; 6,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,09; 22,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,61; 12,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 38,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,77; 13,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,52; 44,13</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,35%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 4,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,25; 7,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 5,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 4,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 15,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,37; 25,7</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 13,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,21; 8,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C01-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,74%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,4; 5,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 4,52</t>
+          <t>-2,2; 4,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,13; 37,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 4,96</t>
+          <t>-2,3; 4,39</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>4,06%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 7,98</t>
+          <t>-5,25; 8,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 22,11</t>
+          <t>-11,28; 24,22</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>0,08%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 8,33</t>
+          <t>-7,78; 7,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 22,64</t>
+          <t>-16,96; 20,32</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>21,39%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 8,54</t>
+          <t>-2,23; 13,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 10,88</t>
+          <t>-6,53; 33,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 39,21</t>
+          <t>-6,38; 54,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 39,95</t>
+          <t>-18,98; 132,27</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,19%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 5,68</t>
+          <t>-3,35; 5,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 6,6</t>
+          <t>-3,68; 6,53</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,33</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>21,14%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 16,54</t>
+          <t>1,63; 16,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,89; 43,13</t>
+          <t>3,15; 42,07</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-10,06</t>
+          <t>-16,63</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-16,99%</t>
+          <t>-27,87%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-29,38; 0,1</t>
+          <t>-39,86; -0,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-48,41; 0,14</t>
+          <t>-64,58; -0,92</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,34</t>
+          <t>23,71</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>47,38%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,09; 22,26</t>
+          <t>3,76; 51,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,52; 44,13</t>
+          <t>5,51; 228,12</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>4,56%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 4,51</t>
+          <t>-6,66; 14,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 8,24</t>
+          <t>-11,57; 32,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C01-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 17,28</t>
+          <t>-0,73; 18,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 5,6</t>
+          <t>-8,35; 5,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 15,42</t>
+          <t>-1,93; 15,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 4,07</t>
+          <t>-2,19; 4,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 77,93</t>
+          <t>-2,51; 78,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,13; 37,16</t>
+          <t>-37,89; 40,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 79,89</t>
+          <t>-6,85; 80,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 4,39</t>
+          <t>-2,28; 4,32</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 6,34</t>
+          <t>-6,62; 6,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 6,4</t>
+          <t>-6,0; 7,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 14,28</t>
+          <t>0,67; 13,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 8,75</t>
+          <t>-5,43; 8,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 23,82</t>
+          <t>-20,21; 23,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 24,78</t>
+          <t>-18,39; 28,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 60,05</t>
+          <t>1,71; 58,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 24,22</t>
+          <t>-11,89; 24,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 9,46</t>
+          <t>-5,92; 8,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 10,54</t>
+          <t>-4,57; 9,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 9,81</t>
+          <t>-5,97; 9,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 7,58</t>
+          <t>-7,41; 7,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 47,92</t>
+          <t>-22,11; 43,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 36,66</t>
+          <t>-12,28; 34,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 29,34</t>
+          <t>-13,87; 29,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,96; 20,32</t>
+          <t>-16,06; 21,35</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 6,16</t>
+          <t>-9,92; 5,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 13,77</t>
+          <t>-1,94; 13,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 3,22</t>
+          <t>-10,09; 4,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 33,95</t>
+          <t>-5,89; 31,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,0; 19,32</t>
+          <t>-23,76; 18,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 54,92</t>
+          <t>-5,59; 54,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,19; 11,94</t>
+          <t>-30,12; 15,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 132,27</t>
+          <t>-17,33; 114,8</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 13,77</t>
+          <t>-7,45; 13,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 17,24</t>
+          <t>-3,15; 16,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 15,29</t>
+          <t>-7,09; 14,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 5,61</t>
+          <t>-3,33; 5,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 41,4</t>
+          <t>-16,79; 41,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 51,54</t>
+          <t>-6,91; 48,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 25,54</t>
+          <t>-10,16; 25,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 6,53</t>
+          <t>-3,68; 6,88</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 16,18</t>
+          <t>-1,3; 16,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 17,27</t>
+          <t>0,03; 16,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 14,72</t>
+          <t>-3,27; 14,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,63; 16,35</t>
+          <t>1,27; 16,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 81,95</t>
+          <t>-4,64; 88,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,41; 67,71</t>
+          <t>1,44; 67,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 42,75</t>
+          <t>-6,73; 42,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,15; 42,07</t>
+          <t>2,66; 43,81</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 9,43</t>
+          <t>-1,58; 8,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,83; 14,78</t>
+          <t>3,03; 14,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 6,48</t>
+          <t>-7,5; 5,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-39,86; -0,56</t>
+          <t>-40,66; -0,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 48,93</t>
+          <t>-5,57; 46,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,49; 53,67</t>
+          <t>9,19; 52,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 14,11</t>
+          <t>-13,72; 13,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-64,58; -0,92</t>
+          <t>-65,61; -0,66</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 4,02</t>
+          <t>-7,32; 4,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 9,51</t>
+          <t>-0,64; 9,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 6,66</t>
+          <t>-4,79; 7,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,76; 51,42</t>
+          <t>3,61; 53,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 12,55</t>
+          <t>-19,45; 12,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 38,93</t>
+          <t>-1,99; 38,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 13,56</t>
+          <t>-8,84; 14,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,51; 228,12</t>
+          <t>5,31; 275,99</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 4,32</t>
+          <t>-0,91; 4,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,22</t>
+          <t>2,23; 7,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 5,22</t>
+          <t>0,0; 5,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 14,46</t>
+          <t>-6,26; 13,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 15,26</t>
+          <t>-2,91; 15,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,37; 25,7</t>
+          <t>7,15; 25,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 13,18</t>
+          <t>0,0; 13,58</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 32,21</t>
+          <t>-11,37; 29,22</t>
         </is>
       </c>
     </row>
